--- a/docmed.xlsx
+++ b/docmed.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -504,6 +504,69 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>pp</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>hmn</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>df</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>game</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>penta</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>deca</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>decap</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>pita</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>sac</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/docmed.xlsx
+++ b/docmed.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A21"/>
+  <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -567,6 +567,20 @@
         </is>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>bjg</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/docmed.xlsx
+++ b/docmed.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A23"/>
+  <dimension ref="A1:A29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -581,6 +581,48 @@
         </is>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>dj</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>wdc</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>glw</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/docmed.xlsx
+++ b/docmed.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A29"/>
+  <dimension ref="A1:A34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -623,6 +623,41 @@
         </is>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>lipo+gino3</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>lipo+gino6</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>lipo+gino6</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>lipo+gino7</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>lipo+gino9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
